--- a/data/字段解释.xlsx
+++ b/data/字段解释.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9A51F6-150C-42F2-9DBD-F3267097F476}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 理赔表" sheetId="2" r:id="rId1"/>
     <sheet name="2. 承保表" sheetId="3" r:id="rId2"/>
     <sheet name="死因分类" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="202">
   <si>
     <t>疾病死亡</t>
   </si>
@@ -663,12 +665,65 @@
   </si>
   <si>
     <t>以上维度组合下的保单件数</t>
+  </si>
+  <si>
+    <t>死因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Declared dead by the court</t>
+  </si>
+  <si>
+    <t>Intentional suicide</t>
+  </si>
+  <si>
+    <t>Homicide</t>
+  </si>
+  <si>
+    <t>Accidents caused by non-vehicles</t>
+  </si>
+  <si>
+    <t>Accidents caused by vehicles</t>
+  </si>
+  <si>
+    <t>Unexplained accident</t>
+  </si>
+  <si>
+    <t>Tumor</t>
+  </si>
+  <si>
+    <t>Diseases of circulatory and blood system</t>
+  </si>
+  <si>
+    <t>Diseases of Respiratory system</t>
+  </si>
+  <si>
+    <t>Diseases of the digestive system</t>
+  </si>
+  <si>
+    <t>Diseases of the urinary and reproductive system</t>
+  </si>
+  <si>
+    <t>Diseases of the nervous and motor systems</t>
+  </si>
+  <si>
+    <t>Endocrine/immune/metabolic diseases</t>
+  </si>
+  <si>
+    <t>Diseases that cannot be classified as tumors or a specific system</t>
+  </si>
+  <si>
+    <t>Unable to determine the disease that caused the death</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -985,6 +1040,99 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1005,103 +1153,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1378,331 +1433,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+    <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+    <row r="6" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+    <row r="8" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="28" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="44">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="34">
         <v>8</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="30" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="41" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="35"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="41" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="30" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="41" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="35"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="41" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="35"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="38" t="s">
+    <row r="14" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="50">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="40">
         <v>9</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="31" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="42" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="41"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="31" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="42" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="42" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="41"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="42" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="41"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="31" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="42" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="41"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="39" t="s">
+    <row r="21" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="42"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="44">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="34">
         <v>10</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="41" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="35"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="30" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="41" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="35"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="30" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="38" t="s">
+    <row r="25" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="36"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="27" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="50">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="40">
         <v>11</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="31" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="42" t="s">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="41"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="31" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="42" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="41"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="39" t="s">
+    <row r="29" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="42"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="28" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1710,240 +1765,240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+    <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="56"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="27" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+    <row r="4" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="28" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+    <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="38"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+    <row r="7" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="40">
         <v>7</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="42" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="41"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="42" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="41"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="31" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="42" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="41"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="31" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="42" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="41"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="39" t="s">
+    <row r="13" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="44">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="34">
         <v>8</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="40" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="35"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="40" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="35"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="40" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="40" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="35"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="29" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="40" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="35"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="29" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="36" t="s">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="36"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+    <row r="21" spans="1:4" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="21">
         <v>9</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="28" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1962,24 +2017,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.25" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.265625" style="14" customWidth="1"/>
     <col min="5" max="5" width="51" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
@@ -1993,7 +2048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
@@ -2010,7 +2065,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
@@ -2027,8 +2082,8 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="46" t="s">
         <v>116</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2044,9 +2099,9 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="47"/>
+      <c r="B5" s="52" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -2059,9 +2114,9 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="22"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="47"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="11" t="s">
         <v>33</v>
       </c>
@@ -2072,9 +2127,9 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="47"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="11" t="s">
         <v>34</v>
       </c>
@@ -2085,9 +2140,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="47"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="11" t="s">
         <v>35</v>
       </c>
@@ -2098,9 +2153,9 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="22"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="47"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="11" t="s">
         <v>36</v>
       </c>
@@ -2111,9 +2166,9 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
-      <c r="B10" s="22"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="47"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
@@ -2124,9 +2179,9 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" s="22"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="47"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="11" t="s">
         <v>38</v>
       </c>
@@ -2137,9 +2192,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
-      <c r="B12" s="22"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="47"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="11" t="s">
         <v>73</v>
       </c>
@@ -2150,9 +2205,9 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="47"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="11" t="s">
         <v>63</v>
       </c>
@@ -2163,9 +2218,9 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="47"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="11" t="s">
         <v>52</v>
       </c>
@@ -2176,9 +2231,9 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="47"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="11" t="s">
         <v>53</v>
       </c>
@@ -2189,9 +2244,9 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="22"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="47"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="11" t="s">
         <v>39</v>
       </c>
@@ -2202,9 +2257,9 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
-      <c r="B17" s="23"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="47"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
@@ -2215,9 +2270,9 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="47"/>
+      <c r="B18" s="49" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -2230,9 +2285,9 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
-      <c r="B19" s="19"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="8" t="s">
         <v>50</v>
       </c>
@@ -2243,9 +2298,9 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
-      <c r="B20" s="19"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
@@ -2256,9 +2311,9 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
-      <c r="B21" s="19"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="8" t="s">
         <v>51</v>
       </c>
@@ -2269,9 +2324,9 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
-      <c r="B22" s="19"/>
+    <row r="22" spans="1:7" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="47"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="8" t="s">
         <v>77</v>
       </c>
@@ -2282,9 +2337,9 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
-      <c r="B23" s="19"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="47"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="8" t="s">
         <v>78</v>
       </c>
@@ -2295,9 +2350,9 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="27"/>
-      <c r="B24" s="19"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="47"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="8" t="s">
         <v>49</v>
       </c>
@@ -2308,9 +2363,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="19"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="47"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="8" t="s">
         <v>68</v>
       </c>
@@ -2321,9 +2376,9 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="27"/>
-      <c r="B26" s="19"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="47"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="8" t="s">
         <v>43</v>
       </c>
@@ -2334,9 +2389,9 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
-      <c r="B27" s="19"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="47"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="8" t="s">
         <v>44</v>
       </c>
@@ -2347,9 +2402,9 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="20"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="47"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="8" t="s">
         <v>67</v>
       </c>
@@ -2360,8 +2415,8 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="28"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="48"/>
       <c r="B29" s="13" t="s">
         <v>58</v>
       </c>
@@ -2375,11 +2430,11 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="26" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -2388,36 +2443,36 @@
       <c r="D30" s="8"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="27"/>
-      <c r="B31" s="19"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="47"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="8"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
-      <c r="B32" s="19"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="47"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="8"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="27"/>
-      <c r="B33" s="20"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="47"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="8"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
-      <c r="B34" s="21" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="47"/>
+      <c r="B34" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2426,81 +2481,81 @@
       <c r="D34" s="9"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
-      <c r="B35" s="22"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="47"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="9"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="27"/>
-      <c r="B36" s="22"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="47"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="9"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="27"/>
-      <c r="B37" s="22"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="47"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="9"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="27"/>
-      <c r="B38" s="22"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="47"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="9"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="22"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="47"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="9"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
-      <c r="B40" s="22"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="47"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="9"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="27"/>
-      <c r="B41" s="22"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="47"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="9"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="27"/>
-      <c r="B42" s="23"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="47"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D42" s="9"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="27"/>
-      <c r="B43" s="18" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="47"/>
+      <c r="B43" s="49" t="s">
         <v>69</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -2511,9 +2566,9 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="27"/>
-      <c r="B44" s="20"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="47"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="8" t="s">
         <v>122</v>
       </c>
@@ -2522,9 +2577,9 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="27"/>
-      <c r="B45" s="21" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="47"/>
+      <c r="B45" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -2535,9 +2590,9 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="27"/>
-      <c r="B46" s="22"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="47"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="9" t="s">
         <v>70</v>
       </c>
@@ -2546,45 +2601,45 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="27"/>
-      <c r="B47" s="22"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="47"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="9"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="27"/>
-      <c r="B48" s="22"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="47"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="9"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="27"/>
-      <c r="B49" s="22"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="47"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="9"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="27"/>
-      <c r="B50" s="23"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="47"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="9"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="27"/>
-      <c r="B51" s="18" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="47"/>
+      <c r="B51" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -2595,9 +2650,9 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="27"/>
-      <c r="B52" s="19"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="47"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="10" t="s">
         <v>71</v>
       </c>
@@ -2606,18 +2661,18 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="27"/>
-      <c r="B53" s="19"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="47"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D53" s="10"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="27"/>
-      <c r="B54" s="19"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="47"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="10" t="s">
         <v>125</v>
       </c>
@@ -2626,18 +2681,18 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="27"/>
-      <c r="B55" s="20"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="47"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D55" s="8"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="27"/>
-      <c r="B56" s="21" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="47"/>
+      <c r="B56" s="52" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -2646,81 +2701,81 @@
       <c r="D56" s="11"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="27"/>
-      <c r="B57" s="22"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="47"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="11"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="27"/>
-      <c r="B58" s="22"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="47"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="9"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="27"/>
-      <c r="B59" s="22"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="47"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D59" s="11"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="27"/>
-      <c r="B60" s="22"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="47"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="11"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="27"/>
-      <c r="B61" s="22"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="47"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="9"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="27"/>
-      <c r="B62" s="22"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="47"/>
+      <c r="B62" s="53"/>
       <c r="C62" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="9"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="27"/>
-      <c r="B63" s="22"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="47"/>
+      <c r="B63" s="53"/>
       <c r="C63" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="9"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="27"/>
-      <c r="B64" s="23"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="47"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D64" s="9"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="27"/>
-      <c r="B65" s="18" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="47"/>
+      <c r="B65" s="49" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
@@ -2729,53 +2784,53 @@
       <c r="D65" s="10"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="27"/>
-      <c r="B66" s="19"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="47"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D66" s="10"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="27"/>
-      <c r="B67" s="19"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="47"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D67" s="10"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="27"/>
-      <c r="B68" s="19"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="47"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="10"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="27"/>
-      <c r="B69" s="19"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="47"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D69" s="10"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="27"/>
-      <c r="B70" s="20"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="47"/>
+      <c r="B70" s="51"/>
       <c r="C70" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D70" s="8"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="27"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="47"/>
       <c r="B71" s="15" t="s">
         <v>30</v>
       </c>
@@ -2787,9 +2842,9 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="27"/>
-      <c r="B72" s="24" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" s="47"/>
+      <c r="B72" s="55" t="s">
         <v>55</v>
       </c>
       <c r="C72" s="16" t="s">
@@ -2798,9 +2853,9 @@
       <c r="D72" s="16"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="28"/>
-      <c r="B73" s="25"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="48"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="10" t="s">
         <v>55</v>
       </c>
@@ -2811,12 +2866,12 @@
       <c r="F73" s="4"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -2840,4 +2895,153 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72A0DF4-2FF5-4E3B-82C6-AF280A766572}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.9296875" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>